--- a/Manuscript/Submitted Files to FR/R2 - 20 July 2020/Manuscript Pieces/Figures and Tables/Table 6 - Sensitivity Analysis.xlsx
+++ b/Manuscript/Submitted Files to FR/R2 - 20 July 2020/Manuscript Pieces/Figures and Tables/Table 6 - Sensitivity Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Weng Lab/Personal_Folders/Steve/dissertation work/Ch 4. Opakapaka Growth/Manuscript/Submitted Files to FR/Revised Manuscript Files/Figures and Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Weng Lab/Personal_Folders/Steve/dissertation work/Ch 4. Opakapaka Growth/Manuscript/Submitted Files to FR/R2 - 20 July 2020/Manuscript Pieces/Figures and Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{01F01208-3D92-2344-8B56-62DCEE9AFD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F5E7D-0284-8E4E-870D-555E07977811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540"/>
+    <workbookView xWindow="520" yWindow="1020" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 6 - Sensitivity Analysis" sheetId="1" r:id="rId1"/>
@@ -46,18 +46,6 @@
     <t>Model 11</t>
   </si>
   <si>
-    <t>Bayesian Model 1 (with Priors)</t>
-  </si>
-  <si>
-    <t>Bayesian Model 2 (with Priors)</t>
-  </si>
-  <si>
-    <t>Bayesian Model 3 (with Priors)</t>
-  </si>
-  <si>
-    <t>Bayesian Model 4 (with Priors)</t>
-  </si>
-  <si>
     <t>Linf - Sensitivity</t>
   </si>
   <si>
@@ -70,17 +58,32 @@
     <t>K - Original Fit</t>
   </si>
   <si>
-    <t>% Difference in K</t>
-  </si>
-  <si>
-    <t>% Difference in Linf</t>
+    <t>% Difference in K fits</t>
+  </si>
+  <si>
+    <t>% Difference in Linf fits</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>Model 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,14 +214,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -594,16 +589,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -958,15 +956,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
@@ -979,276 +978,276 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>62.24</v>
-      </c>
-      <c r="C2" s="4">
-        <v>62.95</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.27</v>
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>53.97</v>
+      </c>
+      <c r="C2" s="3">
+        <v>61.26</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-11.91</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.3</v>
       </c>
       <c r="G2" s="4">
-        <v>3.94</v>
+        <v>56.61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>76.73</v>
-      </c>
-      <c r="C3" s="4">
-        <v>77.959999999999994</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-1.58</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.12</v>
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>54.08</v>
+      </c>
+      <c r="C3" s="3">
+        <v>61.79</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-12.48</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.28999999999999998</v>
       </c>
       <c r="G3" s="4">
-        <v>2.62</v>
+        <v>59.43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>65.59</v>
-      </c>
-      <c r="C4" s="4">
-        <v>64.739999999999995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.31</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.26</v>
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>56.6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>73.69</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-23.18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.17</v>
       </c>
       <c r="G4" s="4">
-        <v>4.43</v>
+        <v>158.6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>62.24</v>
-      </c>
-      <c r="C5" s="4">
-        <v>66.89</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-6.95</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.25</v>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>56.71</v>
+      </c>
+      <c r="C5" s="3">
+        <v>73.67</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-23.03</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.18</v>
       </c>
       <c r="G5" s="4">
-        <v>12.9</v>
+        <v>151.11000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>62.24</v>
-      </c>
-      <c r="C6" s="4">
-        <v>64.739999999999995</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-3.86</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.26</v>
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>62.95</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-13.43</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.27</v>
       </c>
       <c r="G6" s="4">
-        <v>9.44</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>62.24</v>
-      </c>
-      <c r="C7" s="4">
-        <v>69.34</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-10.24</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.15</v>
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>69.92</v>
+      </c>
+      <c r="C7" s="3">
+        <v>77.959999999999994</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-10.32</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.12</v>
       </c>
       <c r="G7" s="4">
-        <v>95.65</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>67.67</v>
-      </c>
-      <c r="C8" s="4">
-        <v>68.14</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-0.69</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.21</v>
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="C8" s="3">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.26</v>
       </c>
       <c r="G8" s="4">
-        <v>2.46</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>62.1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>61.35</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.3</v>
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>66.89</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-18.53</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.25</v>
       </c>
       <c r="G9" s="4">
-        <v>4.09</v>
+        <v>76.05</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="C10" s="4">
-        <v>61.63</v>
-      </c>
-      <c r="D10" s="4">
-        <v>16.98</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.28999999999999998</v>
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-15.82</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.26</v>
       </c>
       <c r="G10" s="4">
-        <v>-36.299999999999997</v>
+        <v>70.66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>73.8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>74.44</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-0.86</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.17</v>
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>69.34</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-21.41</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.15</v>
       </c>
       <c r="G11" s="4">
-        <v>4.83</v>
+        <v>205.08</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="C12" s="4">
-        <v>74.239999999999995</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-0.22</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.16</v>
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>66.47</v>
+      </c>
+      <c r="C12" s="3">
+        <v>68.14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.21</v>
       </c>
       <c r="G12" s="4">
-        <v>1.04</v>
+        <v>15.47</v>
       </c>
     </row>
   </sheetData>
